--- a/Data/Branching ratios.xlsx
+++ b/Data/Branching ratios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daehyun/Dropbox/SACLA 2017B8065 Takanashi/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B1322E3-DEB0-EC4C-8AB6-A648C451D1A7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EE40C2-4B37-7D4C-B6F8-400106558779}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-7340" windowWidth="51200" windowHeight="28340" activeTab="2" xr2:uid="{CBEE9DC1-077C-DD49-AEF6-7472421E9E3F}"/>
+    <workbookView xWindow="5740" yWindow="-22660" windowWidth="33600" windowHeight="20540" activeTab="2" xr2:uid="{CBEE9DC1-077C-DD49-AEF6-7472421E9E3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Vis C1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -136,139 +136,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="86">
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
-    <dxf>
-      <protection locked="1"/>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1128,7 +996,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F4F9E1D-DB0E-1541-A4DE-08E891BAB6B1}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5F4F9E1D-DB0E-1541-A4DE-08E891BAB6B1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -1219,61 +1087,61 @@
     <dataField name="Sum of Value" fld="5" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="11">
-    <format dxfId="85">
+    <format dxfId="41">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="40">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="80">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="78">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="77">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="75">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -1307,7 +1175,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEB97B9E-78DA-AA44-9F30-2660E715C421}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AEB97B9E-78DA-AA44-9F30-2660E715C421}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" showDrill="0" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -1398,61 +1266,61 @@
     <dataField name="Sum of Value" fld="5" baseField="0" baseItem="0" numFmtId="1"/>
   </dataFields>
   <formats count="11">
-    <format dxfId="74">
+    <format dxfId="30">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="73">
+    <format dxfId="29">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="72">
+    <format dxfId="28">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="71">
+    <format dxfId="27">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="70">
+    <format dxfId="26">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="69">
+    <format dxfId="25">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="68">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="67">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="22">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="64">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="2" count="0"/>
@@ -1502,26 +1370,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0367752D-83E4-8B49-B5E7-DA62B2D8B21B}" name="Table1" displayName="Table1" ref="A1:H43" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0367752D-83E4-8B49-B5E7-DA62B2D8B21B}" name="Table1" displayName="Table1" ref="A1:H43" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:H43" xr:uid="{F9B0A61E-E609-2F40-95BC-EAA16F6D6A48}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H43">
-    <sortCondition ref="A2:A43"/>
-    <sortCondition ref="B2:B43"/>
-    <sortCondition ref="C2:C43"/>
+    <sortCondition ref="E1:E43"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{41806DD5-BE9D-0E4A-9CE3-BDF1C095ABBC}" name="1st q" dataDxfId="61"/>
-    <tableColumn id="2" xr3:uid="{3959A4B8-5A86-F641-A190-D531F12A995A}" name="2nd q" dataDxfId="60"/>
-    <tableColumn id="3" xr3:uid="{D2143B82-C59D-6141-B1CA-CA85CD322AB5}" name="3rd q" dataDxfId="59"/>
-    <tableColumn id="7" xr3:uid="{3690C770-473E-3B48-8B82-6736DC775A8F}" name="Total q" dataDxfId="58">
+    <tableColumn id="1" xr3:uid="{41806DD5-BE9D-0E4A-9CE3-BDF1C095ABBC}" name="1st q" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{3959A4B8-5A86-F641-A190-D531F12A995A}" name="2nd q" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{D2143B82-C59D-6141-B1CA-CA85CD322AB5}" name="3rd q" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{3690C770-473E-3B48-8B82-6736DC775A8F}" name="Total q" dataDxfId="14">
       <calculatedColumnFormula>Table1[[#This Row],[1st q]]+Table1[[#This Row],[2nd q]]+Table1[[#This Row],[3rd q]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{D1F8FA1C-76D4-A44D-86AE-E0615DB3A80E}" name="Target" dataDxfId="57">
+    <tableColumn id="4" xr3:uid="{D1F8FA1C-76D4-A44D-86AE-E0615DB3A80E}" name="Target" dataDxfId="13">
       <calculatedColumnFormula>CONCATENATE("C",Table1[[#This Row],[1st q]],"p,I",Table1[[#This Row],[2nd q]],"p,I",Table1[[#This Row],[3rd q]],"p")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D2958DC6-766A-8345-97EA-D2D7205C6C82}" name="Value" dataDxfId="56"/>
-    <tableColumn id="6" xr3:uid="{195F0A44-9CD0-F24C-A339-958C4A81E432}" name="Std" dataDxfId="55"/>
-    <tableColumn id="9" xr3:uid="{F5F853BB-B631-6042-AFDF-E1683F586EE4}" name="Val and std" dataDxfId="54">
+    <tableColumn id="5" xr3:uid="{D2958DC6-766A-8345-97EA-D2D7205C6C82}" name="Value" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{195F0A44-9CD0-F24C-A339-958C4A81E432}" name="Std" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{F5F853BB-B631-6042-AFDF-E1683F586EE4}" name="Val and std" dataDxfId="10">
       <calculatedColumnFormula>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1530,7 +1396,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC220161-A3E8-AC4C-BECD-5FE95AB2CCD9}" name="Table14" displayName="Table14" ref="A1:H43" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC220161-A3E8-AC4C-BECD-5FE95AB2CCD9}" name="Table14" displayName="Table14" ref="A1:H43" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H43" xr:uid="{F9B0A61E-E609-2F40-95BC-EAA16F6D6A48}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H43">
     <sortCondition ref="A2:A43"/>
@@ -1538,18 +1404,18 @@
     <sortCondition ref="C2:C43"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{781F25F2-4055-874B-B609-8B55D306C7EB}" name="1st q" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{52F8762F-52E0-2B46-AE00-E036363AD8CB}" name="2nd q" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{BAF7F44D-7703-D842-AB17-CF32E7A13AE5}" name="3rd q" dataDxfId="49"/>
-    <tableColumn id="7" xr3:uid="{10218F26-CD66-FB40-8442-110D1FCD76BD}" name="Total q" dataDxfId="48">
+    <tableColumn id="1" xr3:uid="{781F25F2-4055-874B-B609-8B55D306C7EB}" name="1st q" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{52F8762F-52E0-2B46-AE00-E036363AD8CB}" name="2nd q" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{BAF7F44D-7703-D842-AB17-CF32E7A13AE5}" name="3rd q" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{10218F26-CD66-FB40-8442-110D1FCD76BD}" name="Total q" dataDxfId="4">
       <calculatedColumnFormula>Table14[[#This Row],[1st q]]+Table14[[#This Row],[2nd q]]+Table14[[#This Row],[3rd q]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{AC3751AA-5D10-7C4D-8665-79A87FD6A5C8}" name="Target" dataDxfId="47">
+    <tableColumn id="4" xr3:uid="{AC3751AA-5D10-7C4D-8665-79A87FD6A5C8}" name="Target" dataDxfId="3">
       <calculatedColumnFormula>CONCATENATE("C",Table14[[#This Row],[1st q]],"p,I",Table14[[#This Row],[2nd q]],"p,I",Table14[[#This Row],[3rd q]],"p")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{B7F08636-559D-6949-B330-56529191325A}" name="Value" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{98E579F4-6B03-DF4A-BBCB-03C2829499C2}" name="Std" dataDxfId="45"/>
-    <tableColumn id="9" xr3:uid="{612B2AE1-02B4-4D40-B50E-4D03D0A059D2}" name="Val and std" dataDxfId="44">
+    <tableColumn id="5" xr3:uid="{B7F08636-559D-6949-B330-56529191325A}" name="Value" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{98E579F4-6B03-DF4A-BBCB-03C2829499C2}" name="Std" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{612B2AE1-02B4-4D40-B50E-4D03D0A059D2}" name="Val and std" dataDxfId="0">
       <calculatedColumnFormula>CONCATENATE(TEXT(Table14[[#This Row],[Value]], "0"), " ± ", TEXT(Table14[[#This Row],[Std]], "0"))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2223,7 +2089,7 @@
   <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2887,14 +2753,14 @@
         <v>C2p,I1p,I1p</v>
       </c>
       <c r="F23" s="2">
-        <v>81.726280311680085</v>
+        <v>72.111423804423609</v>
       </c>
       <c r="G23" s="2">
-        <v>18.65940596287205</v>
+        <v>16.464181731945931</v>
       </c>
       <c r="H23" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>82 ± 19</v>
+        <v>72 ± 16</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2916,14 +2782,14 @@
         <v>C2p,I2p,I1p</v>
       </c>
       <c r="F24" s="2">
-        <v>106.13009177408</v>
+        <v>93.644198624188277</v>
       </c>
       <c r="G24" s="2">
-        <v>15.5126836421218</v>
+        <v>13.6876620371663</v>
       </c>
       <c r="H24" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>106 ± 16</v>
+        <v>94 ± 14</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -2945,14 +2811,14 @@
         <v>C2p,I2p,I2p</v>
       </c>
       <c r="F25" s="2">
-        <v>365.7294819769599</v>
+        <v>322.70248409731761</v>
       </c>
       <c r="G25" s="2">
-        <v>24.992825563700549</v>
+        <v>22.052493144441669</v>
       </c>
       <c r="H25" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>366 ± 25</v>
+        <v>323 ± 22</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -2974,14 +2840,14 @@
         <v>C2p,I3p,I1p</v>
       </c>
       <c r="F26" s="2">
-        <v>30.617014506240011</v>
+        <v>27.015012799623541</v>
       </c>
       <c r="G26" s="2">
-        <v>7.6733838794265123</v>
+        <v>6.7706328347881</v>
       </c>
       <c r="H26" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>31 ± 8</v>
+        <v>27 ± 7</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -3003,14 +2869,14 @@
         <v>C2p,I3p,I2p</v>
       </c>
       <c r="F27" s="2">
-        <v>246.408996272</v>
+        <v>217.41970259294121</v>
       </c>
       <c r="G27" s="2">
-        <v>20.17524513353214</v>
+        <v>17.801686882528369</v>
       </c>
       <c r="H27" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>246 ± 20</v>
+        <v>217 ± 18</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -3032,14 +2898,14 @@
         <v>C2p,I3p,I3p</v>
       </c>
       <c r="F28" s="2">
-        <v>240.86101942848001</v>
+        <v>212.52442890748239</v>
       </c>
       <c r="G28" s="2">
-        <v>20.047953944786439</v>
+        <v>17.689371127752739</v>
       </c>
       <c r="H28" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>241 ± 20</v>
+        <v>213 ± 18</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -3061,14 +2927,14 @@
         <v>C2p,I4p,I1p</v>
       </c>
       <c r="F29" s="2">
-        <v>0.85282256576002868</v>
+        <v>0.75249049920002542</v>
       </c>
       <c r="G29" s="2">
-        <v>4.5257776888435233</v>
+        <v>3.9933332548619331</v>
       </c>
       <c r="H29" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>1 ± 5</v>
+        <v>1 ± 4</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -3090,14 +2956,14 @@
         <v>C2p,I4p,I2p</v>
       </c>
       <c r="F30" s="2">
-        <v>74.761257733120004</v>
+        <v>65.965815646870595</v>
       </c>
       <c r="G30" s="2">
-        <v>11.537794363457399</v>
+        <v>10.18040679128594</v>
       </c>
       <c r="H30" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>75 ± 12</v>
+        <v>66 ± 10</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -3119,14 +2985,14 @@
         <v>C2p,I4p,I3p</v>
       </c>
       <c r="F31" s="2">
-        <v>202.81733301439999</v>
+        <v>178.9564703068236</v>
       </c>
       <c r="G31" s="2">
-        <v>18.242817729874531</v>
+        <v>16.09660387930106</v>
       </c>
       <c r="H31" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>203 ± 18</v>
+        <v>179 ± 16</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -3148,14 +3014,14 @@
         <v>C2p,I4p,I4p</v>
       </c>
       <c r="F32" s="2">
-        <v>142.79893037503999</v>
+        <v>125.99905621327061</v>
       </c>
       <c r="G32" s="2">
-        <v>15.429860315579131</v>
+        <v>13.61458263139335</v>
       </c>
       <c r="H32" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>143 ± 15</v>
+        <v>126 ± 14</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -3177,10 +3043,10 @@
         <v>C2p,I5p,I1p</v>
       </c>
       <c r="F33" s="2">
-        <v>-0.58950165439999658</v>
+        <v>-0.5201485185882323</v>
       </c>
       <c r="G33" s="2">
-        <v>1.7410996223090391E-2</v>
+        <v>1.5362643726256229E-2</v>
       </c>
       <c r="H33" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
@@ -3206,14 +3072,14 @@
         <v>C2p,I5p,I2p</v>
       </c>
       <c r="F34" s="2">
-        <v>13.464471139840001</v>
+        <v>11.880415711623529</v>
       </c>
       <c r="G34" s="2">
-        <v>4.8000073055521169</v>
+        <v>4.2353005637224568</v>
       </c>
       <c r="H34" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>13 ± 5</v>
+        <v>12 ± 4</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -3235,14 +3101,14 @@
         <v>C2p,I5p,I3p</v>
       </c>
       <c r="F35" s="2">
-        <v>48.264054286719997</v>
+        <v>42.585930252988227</v>
       </c>
       <c r="G35" s="2">
-        <v>8.9084267420971326</v>
+        <v>7.8603765371445302</v>
       </c>
       <c r="H35" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>48 ± 9</v>
+        <v>43 ± 8</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3264,14 +3130,14 @@
         <v>C2p,I5p,I4p</v>
       </c>
       <c r="F36" s="2">
-        <v>92.107927367039991</v>
+        <v>81.271700617976478</v>
       </c>
       <c r="G36" s="2">
-        <v>12.289838643506689</v>
+        <v>10.84397527368237</v>
       </c>
       <c r="H36" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>92 ± 12</v>
+        <v>81 ± 11</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -3293,14 +3159,14 @@
         <v>C2p,I5p,I5p</v>
       </c>
       <c r="F37" s="2">
-        <v>79.140872439039995</v>
+        <v>69.830181563858829</v>
       </c>
       <c r="G37" s="2">
-        <v>11.313709995861201</v>
+        <v>9.9826852904657652</v>
       </c>
       <c r="H37" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>79 ± 11</v>
+        <v>70 ± 10</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -3322,14 +3188,14 @@
         <v>C2p,I6p,I1p</v>
       </c>
       <c r="F38" s="2">
-        <v>4.885561790080045</v>
+        <v>4.3107898147765109</v>
       </c>
       <c r="G38" s="2">
-        <v>7.6736380775158439</v>
+        <v>6.7708571272198634</v>
       </c>
       <c r="H38" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>5 ± 8</v>
+        <v>4 ± 7</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -3351,14 +3217,14 @@
         <v>C2p,I6p,I2p</v>
       </c>
       <c r="F39" s="2">
-        <v>-6.607138861439986</v>
+        <v>-5.8298284071529292</v>
       </c>
       <c r="G39" s="2">
-        <v>3.919367779185619</v>
+        <v>3.458265687516723</v>
       </c>
       <c r="H39" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>-7 ± 4</v>
+        <v>-6 ± 3</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -3380,14 +3246,14 @@
         <v>C2p,I6p,I3p</v>
       </c>
       <c r="F40" s="2">
-        <v>10.251354789120001</v>
+        <v>9.0453130492235321</v>
       </c>
       <c r="G40" s="2">
-        <v>5.5426111447820769</v>
+        <v>4.8905392453959511</v>
       </c>
       <c r="H40" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>10 ± 6</v>
+        <v>9 ± 5</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -3409,14 +3275,14 @@
         <v>C2p,I6p,I4p</v>
       </c>
       <c r="F41" s="2">
-        <v>23.812051177600011</v>
+        <v>21.01063339200001</v>
       </c>
       <c r="G41" s="2">
-        <v>7.3322043012344986</v>
+        <v>6.4695920305010288</v>
       </c>
       <c r="H41" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>24 ± 7</v>
+        <v>21 ± 6</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -3438,14 +3304,14 @@
         <v>C2p,I6p,I5p</v>
       </c>
       <c r="F42" s="2">
-        <v>31.155528652160001</v>
+        <v>27.490172340141179</v>
       </c>
       <c r="G42" s="2">
-        <v>7.3321366883809</v>
+        <v>6.4695323721007956</v>
       </c>
       <c r="H42" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>31 ± 7</v>
+        <v>27 ± 6</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -3467,14 +3333,14 @@
         <v>C2p,I6p,I6p</v>
       </c>
       <c r="F43" s="2">
-        <v>13.04703930048001</v>
+        <v>11.512093500423539</v>
       </c>
       <c r="G43" s="2">
-        <v>5.0597308877771434</v>
+        <v>4.4644684303915971</v>
       </c>
       <c r="H43" s="9" t="str">
         <f>CONCATENATE(TEXT(Table1[[#This Row],[Value]], "0"), " ± ", TEXT(Table1[[#This Row],[Std]], "0"))</f>
-        <v>13 ± 5</v>
+        <v>12 ± 4</v>
       </c>
     </row>
   </sheetData>
